--- a/biology/Botanique/Sabicea_hierniana/Sabicea_hierniana.xlsx
+++ b/biology/Botanique/Sabicea_hierniana/Sabicea_hierniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sabicea hierniana est une espèce de plantes de la famille des Rubiaceae et du genre Sabicea, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sabicea hierniana est une espèce de plantes de la famille des Rubiaceae et du genre Sabicea, présente en Afrique tropicale.
 Son épithète spécifique herniana rend hommage au mathématicien et botaniste britannique William Philip Hiern.
 </t>
         </is>
